--- a/tables/table_overview_2011_2019.xlsx
+++ b/tables/table_overview_2011_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t xml:space="preserve">Analise</t>
   </si>
@@ -61,6 +61,12 @@
     <t xml:space="preserve">Admissions_70_up</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admissions_uti_20_49</t>
   </si>
   <si>
@@ -73,6 +79,12 @@
     <t xml:space="preserve">Admissions_uti_70_up</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_uti_elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admissions_non_uti_20_49</t>
   </si>
   <si>
@@ -85,6 +97,12 @@
     <t xml:space="preserve">Admissions_non_uti_70_up</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_non_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_non_uti_elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mortes_20_49</t>
   </si>
   <si>
@@ -95,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mortes_70_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortes_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortes_elderly</t>
   </si>
 </sst>
 </file>
@@ -220,17 +244,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31:P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.87"/>
@@ -673,44 +697,44 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3160</v>
+        <v>148166</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3480</v>
+        <v>141377</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>3726</v>
+        <v>143021</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3463</v>
+        <v>128391</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3272</v>
+        <v>115142</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3837</v>
+        <v>117101</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>3329</v>
+        <v>106680</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>3602</v>
+        <v>109189</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>3960</v>
+        <v>107455</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>25.3164556962025</v>
+        <v>-27.4766140680048</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="n">
-        <v>1.49410764407556</v>
+        <v>-4.52124676739149</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>1.06299102572964</v>
+        <v>-4.59011376944463</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>1.92706332869814</v>
+        <v>-4.45233005703075</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,44 +745,44 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2053</v>
+        <v>213993</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2311</v>
+        <v>203168</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2653</v>
+        <v>216723</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2581</v>
+        <v>216011</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2330</v>
+        <v>224667</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>2842</v>
+        <v>221460</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>2515</v>
+        <v>245089</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>2875</v>
+        <v>240806</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>2895</v>
+        <v>246136</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>41.0131514856308</v>
+        <v>15.0205847854836</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="n">
-        <v>3.34183841785045</v>
+        <v>2.27299679932054</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>2.82534994460377</v>
+        <v>2.21844002794267</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>3.86092119632575</v>
+        <v>2.32758268913633</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,44 +793,44 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>2788</v>
+        <v>3160</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3048</v>
+        <v>3480</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3461</v>
+        <v>3726</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3527</v>
+        <v>3463</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3507</v>
+        <v>3272</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3859</v>
+        <v>3837</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>3983</v>
+        <v>3329</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>4204</v>
+        <v>3602</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>4596</v>
+        <v>3960</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>64.8493543758967</v>
+        <v>25.3164556962025</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="n">
-        <v>5.67138346666216</v>
+        <v>1.49410764407556</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>5.22781724134562</v>
+        <v>1.06299102572964</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>6.11681945418987</v>
+        <v>1.92706332869814</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,44 +841,44 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7257</v>
+        <v>2053</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>8137</v>
+        <v>2311</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>9403</v>
+        <v>2653</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9933</v>
+        <v>2581</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>9839</v>
+        <v>2330</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>9698</v>
+        <v>2842</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>10476</v>
+        <v>2515</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>10119</v>
+        <v>2875</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>11151</v>
+        <v>2895</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>53.6585365853659</v>
+        <v>41.0131514856308</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="n">
-        <v>4.18093287967489</v>
+        <v>3.34183841785045</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>3.91070711261266</v>
+        <v>2.82534994460377</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>4.45186138437808</v>
+        <v>3.86092119632575</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,44 +889,44 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>97668</v>
+        <v>2788</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>91741</v>
+        <v>3048</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>92109</v>
+        <v>3461</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>81560</v>
+        <v>3527</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>70276</v>
+        <v>3507</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>69303</v>
+        <v>3859</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>62683</v>
+        <v>3983</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>64159</v>
+        <v>4204</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>63123</v>
+        <v>4596</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>-35.3698243027399</v>
+        <v>64.8493543758967</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="n">
-        <v>-6.16143844424507</v>
+        <v>5.67138346666216</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>-6.24769874372909</v>
+        <v>5.22781724134562</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>-6.07509877775707</v>
+        <v>6.11681945418987</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,44 +937,44 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45285</v>
+        <v>7257</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43845</v>
+        <v>8137</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44533</v>
+        <v>9403</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>40787</v>
+        <v>9933</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>39264</v>
+        <v>9839</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>41119</v>
+        <v>9698</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>38153</v>
+        <v>10476</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>38553</v>
+        <v>10119</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>37477</v>
+        <v>11151</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>-17.2419123330021</v>
+        <v>53.6585365853659</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="n">
-        <v>-2.39290219349791</v>
+        <v>4.18093287967489</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>-2.5149423563791</v>
+        <v>3.91070711261266</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>-2.27070925026541</v>
+        <v>4.45186138437808</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,44 +985,44 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>54333</v>
+        <v>5213</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>51441</v>
+        <v>5791</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>54368</v>
+        <v>6379</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>51586</v>
+        <v>6044</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>52115</v>
+        <v>5602</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>53998</v>
+        <v>6679</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>56367</v>
+        <v>5844</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>55102</v>
+        <v>6477</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>55114</v>
+        <v>6855</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>1.43743213148547</v>
+        <v>31.498177632841</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="n">
-        <v>0.637358479299532</v>
+        <v>2.26544560175457</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0.527650243813804</v>
+        <v>1.93428240460858</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0.747186442013592</v>
+        <v>2.59768467897306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,44 +1033,44 @@
         <v>20</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>149615</v>
+        <v>10045</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>140542</v>
+        <v>11185</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>149491</v>
+        <v>12864</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>150965</v>
+        <v>13460</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>159206</v>
+        <v>13346</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>153905</v>
+        <v>13557</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>174263</v>
+        <v>14459</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>171381</v>
+        <v>14323</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>175275</v>
+        <v>15747</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>17.1506867626909</v>
+        <v>56.7645594823295</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="n">
-        <v>2.64418098596393</v>
+        <v>4.59103333730477</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>2.57883142611879</v>
+        <v>4.36017255037713</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>2.70957217783894</v>
+        <v>4.82240482387615</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,44 +1081,44 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4614</v>
+        <v>97668</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4623</v>
+        <v>91741</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>4847</v>
+        <v>92109</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4301</v>
+        <v>81560</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4217</v>
+        <v>70276</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>4698</v>
+        <v>69303</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>4004</v>
+        <v>62683</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>4301</v>
+        <v>64159</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>4217</v>
+        <v>63123</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>-8.60424794104898</v>
+        <v>-35.3698243027399</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="n">
-        <v>-1.43754857675889</v>
+        <v>-6.16143844424507</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>-1.81192128088896</v>
+        <v>-6.24769874372909</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>-1.06174845981633</v>
+        <v>-6.07509877775707</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,44 +1129,44 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4126</v>
+        <v>45285</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4265</v>
+        <v>43845</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>4547</v>
+        <v>44533</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4356</v>
+        <v>40787</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4343</v>
+        <v>39264</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>4990</v>
+        <v>41119</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>4282</v>
+        <v>38153</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>4684</v>
+        <v>38553</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>4683</v>
+        <v>37477</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>13.4997576345129</v>
+        <v>-17.2419123330021</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="n">
-        <v>1.34595612631503</v>
+        <v>-2.39290219349791</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0.963206581389286</v>
+        <v>-2.5149423563791</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>1.73015666729273</v>
+        <v>-2.27070925026541</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,44 +1177,44 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>6383</v>
+        <v>54333</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6545</v>
+        <v>51441</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>7335</v>
+        <v>54368</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7130</v>
+        <v>51586</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7572</v>
+        <v>52115</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>8320</v>
+        <v>53998</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>8136</v>
+        <v>56367</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>8504</v>
+        <v>55102</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>8871</v>
+        <v>55114</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>38.9785367382109</v>
+        <v>1.43743213148547</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="n">
-        <v>4.1531540298688</v>
+        <v>0.637358479299532</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>3.8511411182653</v>
+        <v>0.527650243813804</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>4.45604523513177</v>
+        <v>0.747186442013592</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,44 +1225,698 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>28492</v>
+        <v>149615</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>29792</v>
+        <v>140542</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>32467</v>
+        <v>149491</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>33459</v>
+        <v>150965</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>36093</v>
+        <v>159206</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>37587</v>
+        <v>153905</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>39414</v>
+        <v>174263</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>39890</v>
+        <v>171381</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>41566</v>
+        <v>175275</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>45.8865646497262</v>
+        <v>17.1506867626909</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="n">
+        <v>2.64418098596393</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>2.57883142611879</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>2.70957217783894</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>142953</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>135586</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>136642</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>122347</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>109540</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>110422</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>100836</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>102712</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>100600</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>-29.6272201352892</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="n">
+        <v>-4.86205242567385</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>-4.93247369489026</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>-4.79157899190292</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>203948</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>191983</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>203859</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>202551</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>211321</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>207903</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>230630</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>226483</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>230389</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>12.9645792064644</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="n">
+        <v>2.13064251343014</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>2.07449696718127</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>2.18681894224475</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4614</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>4623</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>4847</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>4301</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>4217</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>4698</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>4004</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>4301</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>4217</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>-8.60424794104898</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="n">
+        <v>-1.43754857675889</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>-1.81192128088896</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>-1.06174845981633</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4126</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>4265</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>4547</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>4356</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>4343</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>4990</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>4282</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>4684</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>4683</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>13.4997576345129</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="n">
+        <v>1.34595612631503</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>0.963206581389286</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>1.73015666729273</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>6383</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>6545</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>7335</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>7130</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>7572</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>8320</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>8136</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>8504</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>8871</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>38.9785367382109</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="n">
+        <v>4.1531540298688</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>3.8511411182653</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>4.45604523513177</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>28492</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>29792</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>32467</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>33459</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>36093</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>37587</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>39414</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>39890</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>41566</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>45.8865646497262</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="n">
         <v>4.8636857800302</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O27" s="3" t="n">
         <v>4.72214017373316</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="P27" s="3" t="n">
         <v>5.0054227036421</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>8740</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>8888</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>9394</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>8657</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>8560</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>9688</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>8286</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>8985</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>8900</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>1.83066361556064</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="n">
+        <v>-0.0475554342805107</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>-0.315283689446111</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>0.220891872122508</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>34875</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>36337</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>39802</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>40589</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>43665</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>47550</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>48394</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>50437</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>44.6222222222222</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="n">
+        <v>4.73707530847891</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>4.60888257591021</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>4.86542513455899</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>148166</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>141377</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>143021</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>128391</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>115142</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>117101</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>106680</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>109189</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>107455</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>-27.4766140680048</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="n">
+        <v>-4.52124676739149</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>-4.59011376944463</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>-4.45233005703075</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>5213</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>5791</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>6379</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>6044</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>5602</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>6679</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>5844</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>6477</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>6855</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>31.498177632841</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="n">
+        <v>2.26544560175457</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>1.93428240460858</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>2.59768467897306</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>142953</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>135586</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>136642</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>122347</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>109540</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>110422</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>100836</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>102712</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>100600</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>-29.6272201352892</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="n">
+        <v>-4.86205242567385</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>-4.93247369489026</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>-4.79157899190292</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>213993</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>203168</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>216723</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>216011</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>224667</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>221460</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>245089</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>240806</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>246136</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>15.0205847854836</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="n">
+        <v>2.27299679932054</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>2.21844002794267</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>2.32758268913633</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>10045</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>11185</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>12864</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>13460</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>13346</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>13557</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>14459</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>14323</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>15747</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>56.7645594823295</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="n">
+        <v>4.59103333730477</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>4.36017255037713</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>4.82240482387615</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>203948</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>191983</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>203859</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>202551</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>211321</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>207903</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>230630</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>226483</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>230389</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>12.9645792064644</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="n">
+        <v>2.13064251343014</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>2.07449696718127</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>2.18681894224475</v>
       </c>
     </row>
   </sheetData>
